--- a/Figures and tables/S6 Table Phenotype distributions and filtering.xlsx
+++ b/Figures and tables/S6 Table Phenotype distributions and filtering.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\HKT\Cat Does Plant\Figures and tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Revision\Cat Does Plant\Figures and tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0CB9C6FA-8BE5-4C69-96DB-F71308784589}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526EDCE8-CCD9-4384-8D13-D89AFD983A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S6 Table Phenotype distribution" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Trait</t>
   </si>
@@ -137,24 +137,6 @@
   </si>
   <si>
     <t>SES</t>
-  </si>
-  <si>
-    <t>Filtered_Length_WO_husk</t>
-  </si>
-  <si>
-    <t>Height_WO_husk</t>
-  </si>
-  <si>
-    <t>Width_WO_husk</t>
-  </si>
-  <si>
-    <t>Seed_volume</t>
-  </si>
-  <si>
-    <t>Filtered_Seed_Weight</t>
-  </si>
-  <si>
-    <t>Seed_density</t>
   </si>
   <si>
     <t>Supplementary table 6. Details on phenotype distributions before and after filtering.</t>
@@ -163,7 +145,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -998,29 +980,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +1022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1060,7 +1042,7 @@
         <v>0.15779158473014801</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1080,7 +1062,7 @@
         <v>0.39841911196708601</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1100,7 +1082,7 @@
         <v>0.49492642283439597</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1120,7 +1102,7 @@
         <v>0.497077256441116</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1140,7 +1122,7 @@
         <v>0.71412855386733998</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1160,7 +1142,7 @@
         <v>0.69566559791564897</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1180,7 +1162,7 @@
         <v>0.41225683689117398</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1200,7 +1182,7 @@
         <v>0.109011508524417</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1220,7 +1202,7 @@
         <v>0.176111489534378</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1240,7 +1222,7 @@
         <v>5.64559325575828E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1260,7 +1242,7 @@
         <v>0.888508260250091</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1280,7 +1262,7 @@
         <v>0.44670444726943898</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1300,7 +1282,7 @@
         <v>0.7576904296875</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1320,7 +1302,7 @@
         <v>0.37194728851318298</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1340,7 +1322,7 @@
         <v>0.202762186527252</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1360,7 +1342,7 @@
         <v>0.47621732950210499</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1380,7 +1362,7 @@
         <v>0.57370036840438798</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1400,7 +1382,7 @@
         <v>0.62384635210037198</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1420,7 +1402,7 @@
         <v>0.87468081712722701</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1440,7 +1422,7 @@
         <v>0.18959355354308999</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1460,7 +1442,7 @@
         <v>0.59425622224807695</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1480,7 +1462,7 @@
         <v>7.4676745500214595E-15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1500,7 +1482,7 @@
         <v>0.231375217437744</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1520,7 +1502,7 @@
         <v>3.7653073668479899E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1540,7 +1522,7 @@
         <v>0.79810589551925604</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1560,7 +1542,7 @@
         <v>0.191139131784439</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1580,7 +1562,7 @@
         <v>0.273952096700668</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1600,7 +1582,7 @@
         <v>0.117370150983333</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1620,7 +1602,7 @@
         <v>2.7349701151251699E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1640,7 +1622,7 @@
         <v>0.109220750629901</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1660,7 +1642,7 @@
         <v>4.8183321952819803E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1680,7 +1662,7 @@
         <v>5.5418789386749198E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1698,126 +1680,6 @@
       </c>
       <c r="F35">
         <v>7.5967617332935305E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36">
-        <v>0.93619108200073198</v>
-      </c>
-      <c r="C36" s="1">
-        <v>5.8962024240827304E-7</v>
-      </c>
-      <c r="D36">
-        <v>12</v>
-      </c>
-      <c r="E36">
-        <v>0.98516345024108798</v>
-      </c>
-      <c r="F36">
-        <v>8.3694487810134804E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37">
-        <v>0.99267143011093095</v>
-      </c>
-      <c r="C37">
-        <v>0.53327751159667902</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0.99267143011093095</v>
-      </c>
-      <c r="F37">
-        <v>0.53327751159667902</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38">
-        <v>0.99512726068496704</v>
-      </c>
-      <c r="C38">
-        <v>0.845095634460449</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0.99512726068496704</v>
-      </c>
-      <c r="F38">
-        <v>0.845095634460449</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39">
-        <v>0.98397892713546697</v>
-      </c>
-      <c r="C39">
-        <v>4.4304922223091098E-2</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0.98397892713546697</v>
-      </c>
-      <c r="F39">
-        <v>4.4304922223091098E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40">
-        <v>0.97674119472503595</v>
-      </c>
-      <c r="C40">
-        <v>5.3220870904624401E-3</v>
-      </c>
-      <c r="D40">
-        <v>6</v>
-      </c>
-      <c r="E40">
-        <v>0.98439258337020796</v>
-      </c>
-      <c r="F40">
-        <v>5.81388585269451E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41">
-        <v>0.99166405200958196</v>
-      </c>
-      <c r="C41">
-        <v>0.41657942533492998</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0.99166405200958196</v>
-      </c>
-      <c r="F41">
-        <v>0.41657942533492998</v>
       </c>
     </row>
   </sheetData>
